--- a/chonker/chonker.xlsx
+++ b/chonker/chonker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/tlievaart_tudelft_nl/Documents/Q4/Integratie project 1/IP-26/chonker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{8061E18D-604F-4182-B57F-79EE54CAB79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96AE2BC9-C677-4390-971D-131CCFA55946}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{8061E18D-604F-4182-B57F-79EE54CAB79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F89CA0-6BCB-4606-A442-3FAE5E016DD1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leeg" sheetId="1" r:id="rId1"/>
@@ -429,6 +429,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -728,12 +732,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D281" sqref="D281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20441,11 +20447,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:M363"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M363"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:A363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/chonker/chonker.xlsx
+++ b/chonker/chonker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/tlievaart_tudelft_nl/Documents/Q4/Integratie project 1/IP-26/chonker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{8061E18D-604F-4182-B57F-79EE54CAB79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78F89CA0-6BCB-4606-A442-3FAE5E016DD1}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{8061E18D-604F-4182-B57F-79EE54CAB79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D46013F-7125-4377-99AF-8F166AE5D2F2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leeg" sheetId="1" r:id="rId1"/>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M356"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D281" sqref="D281"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10558,11 +10558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M360"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection sqref="A1:M360"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="27.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -20447,8 +20450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:M363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:A363"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
